--- a/biology/Botanique/Société_centrale_d'horticulture_de_Nancy/Société_centrale_d'horticulture_de_Nancy.xlsx
+++ b/biology/Botanique/Société_centrale_d'horticulture_de_Nancy/Société_centrale_d'horticulture_de_Nancy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_centrale_d%27horticulture_de_Nancy</t>
+          <t>Société_centrale_d'horticulture_de_Nancy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La société centrale d'horticulture de Nancy (SCHN), fondée le 5 janvier 1877 à l'hôtel de ville de Nancy, est une société d'horticulture basée à Nancy qui a joué un rôle majeur dans l'école de Nancy, mouvement artistique Art nouveau fortement marqué par les thèmes botaniques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_centrale_d%27horticulture_de_Nancy</t>
+          <t>Société_centrale_d'horticulture_de_Nancy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fondateurs de la Société centrale d'horticulture de Nancy le 5 janvier 1877[1] sont Léon Simon (président) , Émile Gallé (secrétaire), Jean-Joseph Picoré, Victor Lemoine et François-Félix Crousse[2].
-La SCHN créé en 2016 le « Prix Julien-Gérardin » en mémoire de Julien Gérardin 1860-1924),  un notaire nancéien, passionné de photographie, qui a laissé plus de 6 000 autochromes dont la plupart concernent la nature, les parcs nancéiens, l’art nouveau mais aussi la SCHN dont il était membre[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fondateurs de la Société centrale d'horticulture de Nancy le 5 janvier 1877 sont Léon Simon (président) , Émile Gallé (secrétaire), Jean-Joseph Picoré, Victor Lemoine et François-Félix Crousse.
+La SCHN créé en 2016 le « Prix Julien-Gérardin » en mémoire de Julien Gérardin 1860-1924),  un notaire nancéien, passionné de photographie, qui a laissé plus de 6 000 autochromes dont la plupart concernent la nature, les parcs nancéiens, l’art nouveau mais aussi la SCHN dont il était membre,.
 </t>
         </is>
       </c>
